--- a/src/testing/GenAI_Test_Result.xlsx
+++ b/src/testing/GenAI_Test_Result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F379"/>
+  <dimension ref="A1:I379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,21 @@
           <t>Intention</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>intention</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -487,10 +502,29 @@
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ESXi 5.0 and 5.1 were both released on 2011-08-24.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -521,6 +555,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -550,6 +587,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -583,6 +623,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -611,6 +654,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -639,6 +685,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -668,6 +717,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -699,6 +751,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -727,6 +782,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -755,6 +813,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -783,6 +844,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -814,6 +878,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -842,6 +909,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -870,6 +940,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -899,6 +972,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -928,6 +1004,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -956,6 +1035,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -984,6 +1066,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1013,6 +1098,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1043,6 +1131,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1071,6 +1162,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1099,6 +1193,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1129,6 +1226,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1158,6 +1258,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1186,6 +1289,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1215,6 +1321,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1243,6 +1352,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1272,6 +1384,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1300,6 +1415,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1328,6 +1446,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1357,6 +1478,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1397,6 +1521,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1425,6 +1552,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1453,6 +1583,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1481,6 +1614,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1512,6 +1648,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1540,6 +1679,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1568,6 +1710,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1596,6 +1741,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1627,6 +1775,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1655,6 +1806,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1683,6 +1837,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1712,6 +1869,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1742,6 +1902,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1770,6 +1933,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1798,6 +1964,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1827,6 +1996,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1856,6 +2028,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1884,6 +2059,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1913,6 +2091,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1941,6 +2122,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1970,6 +2154,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1999,6 +2186,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2028,6 +2218,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2056,6 +2249,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2087,6 +2283,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2115,6 +2314,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2144,6 +2346,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2172,6 +2377,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2200,6 +2408,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2228,6 +2439,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2256,6 +2470,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2284,6 +2501,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2312,6 +2532,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2340,6 +2563,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2368,6 +2594,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2396,6 +2625,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2424,6 +2656,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2452,6 +2687,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2480,6 +2718,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2508,6 +2749,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2536,6 +2780,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2564,6 +2811,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2588,6 +2838,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2616,6 +2869,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2644,6 +2900,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2672,6 +2931,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2700,6 +2962,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2728,6 +2993,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2756,6 +3024,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2784,6 +3055,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2812,6 +3086,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2840,6 +3117,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2868,6 +3148,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2896,6 +3179,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2924,6 +3210,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2952,6 +3241,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2980,6 +3272,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3008,6 +3303,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3037,6 +3335,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3065,6 +3366,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3093,6 +3397,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3121,6 +3428,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3149,6 +3459,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3178,6 +3491,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3206,6 +3522,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3234,6 +3553,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3262,6 +3584,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3290,6 +3615,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3318,6 +3646,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3346,6 +3677,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3374,6 +3708,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3402,6 +3739,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3430,6 +3770,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3458,6 +3801,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3486,6 +3832,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3514,6 +3863,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3542,6 +3894,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3570,6 +3925,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3598,6 +3956,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3626,6 +3987,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3654,6 +4018,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3682,6 +4049,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3710,6 +4080,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3748,6 +4121,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3776,6 +4152,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3809,6 +4188,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3841,6 +4223,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3869,6 +4254,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3893,6 +4281,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3917,6 +4308,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3941,6 +4335,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3965,6 +4362,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3993,6 +4393,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4021,6 +4424,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4053,6 +4459,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4085,6 +4494,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4111,6 +4523,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4137,6 +4552,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4165,6 +4583,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4193,6 +4614,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4223,6 +4647,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4251,6 +4678,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4279,6 +4709,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4307,6 +4740,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4335,6 +4771,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4363,6 +4802,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4419,6 +4861,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4447,6 +4892,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4475,6 +4923,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4503,6 +4954,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4527,6 +4981,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4555,6 +5012,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4583,6 +5043,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4607,6 +5070,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4631,6 +5097,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4655,6 +5124,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4683,6 +5155,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4724,6 +5199,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4765,6 +5243,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4793,6 +5274,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4840,6 +5324,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4864,6 +5351,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4892,6 +5382,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4916,6 +5409,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4938,6 +5434,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4964,6 +5463,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4992,6 +5494,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5014,6 +5519,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5042,6 +5550,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5068,6 +5579,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5094,6 +5608,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5122,6 +5639,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5150,6 +5670,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5188,6 +5711,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5227,6 +5753,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5255,6 +5784,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5283,6 +5815,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5319,6 +5854,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5351,6 +5889,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5379,6 +5920,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5416,6 +5960,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5459,6 +6006,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5487,6 +6037,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5513,6 +6066,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5537,6 +6093,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5561,6 +6120,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5589,6 +6151,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5621,6 +6186,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5649,6 +6217,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5677,6 +6248,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5705,6 +6279,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5733,6 +6310,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5759,6 +6339,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5787,6 +6370,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5816,6 +6402,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5844,6 +6433,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5872,6 +6464,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5900,6 +6495,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5928,6 +6526,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5956,6 +6557,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5984,6 +6588,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6012,6 +6619,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6040,6 +6650,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6069,6 +6682,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6097,6 +6713,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6126,6 +6745,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6150,6 +6772,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6174,6 +6799,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6198,6 +6826,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6226,6 +6857,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6254,6 +6888,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6278,6 +6915,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6302,6 +6942,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6330,6 +6973,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6358,6 +7004,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6386,6 +7035,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6414,6 +7066,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6449,6 +7104,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6495,6 +7153,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6523,6 +7184,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6551,6 +7215,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6579,6 +7246,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6603,6 +7273,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6631,6 +7304,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6659,6 +7335,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6687,6 +7366,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6715,6 +7397,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6743,6 +7428,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6771,6 +7459,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6799,6 +7490,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -6827,6 +7521,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -6855,6 +7552,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6883,6 +7583,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6911,6 +7614,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6940,6 +7646,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6968,6 +7677,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6996,6 +7708,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -7024,6 +7739,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -7053,6 +7771,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -7102,6 +7823,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -7132,6 +7856,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -7160,6 +7887,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -7189,6 +7919,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -7217,6 +7950,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -7251,6 +7987,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -7279,6 +8018,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -7308,6 +8050,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -7337,6 +8082,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -7366,6 +8114,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -7412,6 +8163,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -7455,6 +8209,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -7484,6 +8241,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -7539,6 +8299,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -7568,6 +8331,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -7596,6 +8362,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -7624,6 +8393,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -7652,6 +8424,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -7680,6 +8455,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -7719,6 +8497,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -7762,6 +8543,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -7786,6 +8570,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -7810,6 +8597,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -7830,6 +8620,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -7850,6 +8643,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -7880,6 +8676,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -7911,6 +8710,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -7935,6 +8737,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -7959,6 +8764,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -7983,6 +8791,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -8007,6 +8818,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -8031,6 +8845,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -8055,6 +8872,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -8079,6 +8899,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -8103,6 +8926,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -8127,6 +8953,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -8151,6 +8980,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -8175,6 +9007,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -8202,6 +9037,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -8226,6 +9064,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -8254,6 +9095,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -8369,6 +9213,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -8393,6 +9240,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -8421,6 +9271,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -8449,6 +9302,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -8477,6 +9333,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -8505,6 +9364,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -8541,6 +9403,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -8579,6 +9444,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -8612,6 +9480,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -8638,6 +9509,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -8666,6 +9540,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -8694,6 +9571,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -8722,6 +9602,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -8748,6 +9631,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8774,6 +9660,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8803,6 +9692,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -8829,6 +9721,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -8855,6 +9750,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -8875,6 +9773,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -8895,6 +9796,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -8915,6 +9819,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -8935,6 +9842,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -8955,6 +9865,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -8975,6 +9888,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -8995,6 +9911,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -9015,6 +9934,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -9035,6 +9957,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -9055,6 +9980,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -9075,6 +10003,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -9095,6 +10026,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -9115,6 +10049,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -9135,6 +10072,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -9155,6 +10095,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -9175,6 +10118,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -9195,6 +10141,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -9215,6 +10164,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -9240,6 +10192,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -9275,6 +10230,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -9295,6 +10253,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -9315,6 +10276,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -9335,6 +10299,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -9355,6 +10322,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -9390,6 +10360,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -9410,6 +10383,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -9430,6 +10406,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -9450,6 +10429,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -9470,6 +10452,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -9490,6 +10475,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -9510,6 +10498,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -9545,6 +10536,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -9571,6 +10565,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -9591,6 +10588,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -9617,6 +10617,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -9637,6 +10640,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -9657,6 +10663,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -9677,6 +10686,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -9697,6 +10709,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -9717,6 +10732,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -9737,6 +10755,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -9765,6 +10786,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -9785,6 +10809,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -9805,6 +10832,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -9825,6 +10855,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -9845,6 +10878,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -9865,6 +10901,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -9885,6 +10924,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -9913,6 +10955,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -9948,6 +10993,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -9968,6 +11016,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -10089,6 +11140,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -10109,6 +11163,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -10129,6 +11186,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -10149,6 +11209,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -10169,6 +11232,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -10189,6 +11255,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -10209,6 +11278,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -10229,6 +11301,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -10249,6 +11324,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -10269,6 +11347,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -10296,6 +11377,9 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -10316,6 +11400,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -10336,6 +11423,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -10356,6 +11446,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -10376,6 +11469,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -10396,6 +11492,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -10416,6 +11515,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -10436,6 +11538,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -10456,6 +11561,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -10476,6 +11584,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -10496,6 +11607,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -10524,6 +11638,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -10546,6 +11663,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -10568,6 +11688,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -10590,6 +11713,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -10614,6 +11740,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -10634,6 +11763,9 @@
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -10654,6 +11786,9 @@
           <t>VMWare Product Upgrade Path</t>
         </is>
       </c>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -10674,6 +11809,9 @@
           <t>VMWare Product Upgrade Path</t>
         </is>
       </c>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -10694,6 +11832,9 @@
           <t>VMware Product Configuration Limits</t>
         </is>
       </c>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -10714,6 +11855,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -10734,6 +11878,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -10754,6 +11901,9 @@
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -10774,6 +11924,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -10794,6 +11947,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -10814,6 +11970,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -10834,6 +11993,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -10854,6 +12016,9 @@
           <t>VMWare Product Compatibility</t>
         </is>
       </c>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/src/testing/GenAI_Test_Result.xlsx
+++ b/src/testing/GenAI_Test_Result.xlsx
@@ -522,10 +522,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +567,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -617,10 +613,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -676,10 +670,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -723,10 +715,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -771,10 +761,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -819,10 +807,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -872,10 +858,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -919,10 +903,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -966,10 +948,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1013,10 +993,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1070,10 +1048,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1117,10 +1093,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1164,10 +1138,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1212,10 +1184,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1264,10 +1234,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1311,10 +1279,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1358,10 +1324,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1406,10 +1370,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1459,10 +1421,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1506,10 +1466,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1553,10 +1511,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I23" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1602,10 +1558,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1662,10 +1616,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="I25" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1709,10 +1661,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1757,10 +1707,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1804,10 +1752,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1865,10 +1811,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="I29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1912,10 +1856,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1959,10 +1901,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2007,10 +1947,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2073,10 +2011,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2120,10 +2056,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I34" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2168,10 +2102,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -2215,10 +2147,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -2268,10 +2198,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2315,10 +2243,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I38" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2362,10 +2288,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -2409,10 +2333,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2462,10 +2384,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2509,10 +2429,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I42" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -2556,10 +2474,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2604,10 +2520,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2660,10 +2574,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2707,10 +2619,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I46" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2754,10 +2664,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I47" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -2802,10 +2710,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2853,10 +2759,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2900,10 +2804,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2955,10 +2857,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -3002,10 +2902,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I52" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -3058,10 +2956,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="I53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -3106,10 +3002,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -3156,10 +3050,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -3203,10 +3095,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I56" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -3261,10 +3151,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3308,10 +3196,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I58" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3356,10 +3242,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="I59" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3403,10 +3287,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3450,10 +3332,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3497,10 +3377,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3544,10 +3422,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3591,10 +3467,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -3638,10 +3512,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3685,10 +3557,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -3732,10 +3602,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3779,10 +3647,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="I68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3826,10 +3692,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I69" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -3873,10 +3737,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3920,10 +3782,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="I71" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="72">
@@ -3967,10 +3827,8 @@
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="I72" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3994,15 +3852,31 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Till 2021-05-28</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4025,15 +3899,31 @@
           <t xml:space="preserve">Pass ,Date format needs to update </t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>App Volumes 2.5, 2.6, and 2.7 were all released on 2014-12-09.</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4052,15 +3942,31 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>unable to find life cycle date for AppDefense Plugin 2.0 Platinum Edition</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4083,15 +3989,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>The information provided does not include the End of Technical Guidance Date for Avi Kubernetes Operator 1.7.x. Therefore, we cannot determine when it will reach the end of technical guidance on February 15, 2024.</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4114,15 +4036,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>The Avi Kubernetes Operator 1.7.x was released on 2022-05-25. Since today is 2024-02-15, the release date has already passed.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4145,15 +4083,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Bitfusion 4.0 was released on 2021-08-17.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4176,15 +4130,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Based on the provided context, the End of Support Date for Bitfusion 4.0 is 2023-08-17. Since today is 2024-02-15, Bitfusion 4.0 support has already ended.</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4207,15 +4177,31 @@
           <t xml:space="preserve"> Pass</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Based on the provided context, we can determine that the General Availability Date for Bitfusion 4.0 is 2021-08-17. Since today's date is 2024-02-15, which is beyond the General Availability Date, we can conclude that the support for Bitfusion 4.0 is no longer active.</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4238,15 +4224,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Today is 2024-02-15, and the General Availability Date for Cisco Nexus 1000V (resell) is 2009-06-12. Therefore, Cisco Nexus 1000V (resell) was released on 2009-06-12.</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4269,15 +4271,31 @@
           <t xml:space="preserve">Pass, Date format needs to update </t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Cloud Director 10.0 was released on 2019-09-19.</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4300,15 +4318,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>Hardware compatibility with VMWare Product</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No, the Cisco Nexus 1000V is not currently supported. VMware discontinued support of third-party switches, including the Nexus 1000V, due to the End of Availability (EOA) for the Cisco Nexus 1000V SKU and its associated support SKUs from VMware effective February 2, 2015. Customers who want to buy additional licenses and support for the Cisco Nexus 1000V after February 2, 2015 can buy those licenses and support directly from Cisco.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>VMWare Knowledge Base</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4331,15 +4365,31 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>No, Cloud Director App Launchpad 1.0 is not currently supported. The End of Support Date for version 1.0 is 2022-04-09, which has already passed.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4362,15 +4412,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Today is 2024-02-15, and Cloud Director App Launchpad 2.0 has an End of Support Date of 2022-10-15. Therefore, Cloud Director App Launchpad 2.0 support ended on 2022-10-15.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4393,15 +4459,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Cloud Foundation 3.10 was released on 2020-05-26.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4424,15 +4506,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Today is 2024-02-15, and the General Availability Date for Cloud Director Object Storage Extension 1.5 is 2020-04-16. Therefore, Cloud Director Object Storage Extension 1.5 was released on 2020-04-16.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4455,15 +4553,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Cloud Director Object Storage Extension 1.5 support will end on 2022-04-16.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4486,15 +4600,31 @@
           <t>Fail ,No Data</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>The End of Technical Guidance Date for Cloud Director Object Storage Extension 1.5 is not mentioned in the provided context. Therefore, we cannot determine when technical guidance for this version will end.</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4517,15 +4647,31 @@
           <t>Fail ,No Data</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>The technical guidance for Cloud Provider Lifecycle Manager 1.1 will end on 2023-05-13.</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4549,15 +4695,31 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Yes, Cloud Provider Lifecycle Manager 1.1 is still active as of today, 2024-02-15. The General Availability Date for this version is 2021-05-13, which means it has been released and is available for use. The End of Support Date is 2023-05-13, which is still in the future, indicating that support for this version is ongoing.</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4580,15 +4742,31 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>VMWare Knowledge Base</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Based on the provided information, Cloud Provider Pod 1.0 has a General Availability Date of 2018-10-16 and an End of Support Date of 2020-10-16. Since today is 2024-02-15, it is beyond the End of Support Date. Therefore, we cannot determine if Cloud Provider Pod 1.0 is still active using the given context.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4611,15 +4789,31 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>The context provided does not include information about the End of Availability Date for Cloud Provider Pod 1.0. Therefore, we cannot answer the question with the given context.</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4642,15 +4836,31 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>The Container Service Extension 3.1 was released on 2021-07-15.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4673,15 +4883,31 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>The End of Support Date for Container Service Extension 3.1 is 2023-07-15. Since today is 2024-02-15, the release has already ended.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4705,15 +4931,31 @@
           <t xml:space="preserve">Pass </t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Based on the provided context, Container Service Extension 3.1 has a General Availability Date of 2021-07-15. Since today is 2024-02-15, the release is no longer active as it has been surpassed by newer releases. The End of Support Date is also 2023-07-15, which means that support for this version has already ended.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4736,15 +4978,31 @@
           <t xml:space="preserve">Pass,Date format needs to update </t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>VMWare production version and life cycle dates</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>The question cannot be answered with the given context. The context only provides information about the End of Support Date, End of Technical Guidance Date, and the General Availability Date for Data Recovery 1.0. It does not provide any information about the release date of Data Recovery 1.0.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>VMWare production version and life cycle dates</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
